--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB305.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB305.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2243173772184061</v>
+        <v>0.2243166572380701</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.32126117 0.94699063]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.466884662212373</v>
+        <v>1.466880383355958</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.43682036  0.52375887  0.7313444 ]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1333202258948911</v>
+        <v>0.133319600267756</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.00179395  0.01752325  0.99984485]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8344398836461775</v>
+        <v>0.8344448762653219</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.00124692  0.28056321 -0.95983474]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.169617589882608</v>
+        <v>2.169621105349656</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.71968397 0.28546058 0.63290382]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.166218246417449</v>
+        <v>1.166217900643735</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.73138087 -0.26632338  0.62781676]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.570241651758094</v>
+        <v>0.5702410547430989</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31553787 0.94891298]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9908681765210204</v>
+        <v>0.9908661927219888</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30856319  0.95120385]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.362671964995791</v>
+        <v>2.36264967122835</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.72389606  0.25239499  0.64208353]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.134941705005624</v>
+        <v>2.134941892813619</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.72543151 -0.27526146  0.63085676]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8428996077892514</v>
+        <v>0.8428997607208314</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[ 0.00125139 -0.28042141 -0.95987617]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.409759364435021</v>
+        <v>2.40975649655719</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.71713305 -0.28467602  0.63614444]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.935939416145342</v>
+        <v>3.935958454348492</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.70126719 0.25677996 0.66504765]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.228140479433028</v>
+        <v>1.228143127260918</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30462137  0.95247353]</t>
+        </is>
       </c>
     </row>
   </sheetData>
